--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAC83BA-8C7A-416A-B130-9E24E636ADDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F628A25E-B4AC-4E0C-9911-E37646740832}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人信息业功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入合法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,45 +364,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>修改手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入非法手机号，例如空值、长度于11位、非1开头，点击确定修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击任一选项，点击提交按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择国家或地区(语言)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择兴趣爱好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中任一选项，点击提交按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中多个选项，点击提交按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不选中任何选项，点击提交按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐司提示：请先选择兴趣爱好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息页功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>输入合法手机号，例如17859762411，点击确定修改</t>
-  </si>
-  <si>
-    <t>修改手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入非法手机号，例如空值、长度于11位、非1开头，点击确定修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击任一选项，点击提交按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不点击任何选项，点击提交按钮</t>
-  </si>
-  <si>
-    <t>选择国家或地区(语言)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择兴趣爱好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中任一选项，点击提交按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中多个选项，点击提交按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不选中任何选项，点击提交按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吐司提示：请先选择兴趣爱好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +472,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,8 +491,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -572,23 +584,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,6 +600,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -611,29 +633,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -641,41 +648,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,28 +968,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1047,28 +1039,28 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1127,416 +1119,418 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>2</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>3</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>4</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>5</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>6</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>7</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>1</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
         <v>2</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="B32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
         <v>3</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="B34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
         <v>4</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>5</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>6</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>7</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>1</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="B36" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>2</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
-        <v>3</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>4</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>67</v>
+      <c r="B37" s="17"/>
+      <c r="C37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>84</v>
+      <c r="A38" s="25"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
+      <c r="B39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1544,12 +1538,12 @@
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
